--- a/Output/Холодильники.xlsx
+++ b/Output/Холодильники.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Артикул</t>
   </si>
@@ -136,6 +136,9 @@
     <t>Холодильники</t>
   </si>
   <si>
+    <t>side-by-side</t>
+  </si>
+  <si>
     <t>KFN14947SDEED/CS-1</t>
   </si>
   <si>
@@ -196,9 +199,6 @@
     <t>SMEG</t>
   </si>
   <si>
-    <t>side-by-side</t>
-  </si>
-  <si>
     <t>Side by Side (сбоку)</t>
   </si>
   <si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>FAB5RGO</t>
+  </si>
+  <si>
+    <t>мини бары</t>
   </si>
   <si>
     <t>FAB5RNE1</t>
@@ -927,7 +930,9 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
@@ -958,16 +963,16 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -976,41 +981,41 @@
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="n">
         <v>412</v>
@@ -1028,45 +1033,45 @@
         <v>41</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -1075,7 +1080,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
@@ -1083,22 +1088,22 @@
         <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
         <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
         <v>63</v>
@@ -1107,7 +1112,7 @@
         <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
         <v>65</v>
@@ -1128,25 +1133,25 @@
         <v>67</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH4" t="s">
         <v>68</v>
@@ -1160,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -1172,7 +1177,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>70</v>
@@ -1185,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
         <v>62</v>
@@ -1206,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
         <v>76</v>
@@ -1230,7 +1235,7 @@
         <v>72</v>
       </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="s">
         <v>79</v>
@@ -1256,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -1268,7 +1273,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>70</v>
@@ -1281,7 +1286,7 @@
         <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
         <v>62</v>
@@ -1302,7 +1307,7 @@
         <v>64</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
         <v>76</v>
@@ -1326,7 +1331,7 @@
         <v>72</v>
       </c>
       <c r="AB6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="s">
         <v>79</v>
@@ -1352,7 +1357,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>83</v>
@@ -1364,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>70</v>
@@ -1395,7 +1400,7 @@
         <v>85</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
         <v>86</v>
@@ -1422,7 +1427,7 @@
         <v>72</v>
       </c>
       <c r="AB7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC7" t="s">
         <v>79</v>
@@ -1448,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>90</v>
@@ -1460,7 +1465,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>70</v>
@@ -1491,7 +1496,7 @@
         <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
         <v>86</v>
@@ -1518,7 +1523,7 @@
         <v>72</v>
       </c>
       <c r="AB8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="s">
         <v>79</v>
@@ -1544,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>92</v>
@@ -1555,8 +1560,12 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
@@ -1592,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -1604,7 +1613,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>70</v>
@@ -1635,10 +1644,10 @@
         <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
         <v>87</v>
@@ -1662,7 +1671,7 @@
         <v>72</v>
       </c>
       <c r="AB10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="s">
         <v>79</v>
@@ -1688,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>94</v>
@@ -1700,7 +1709,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>
@@ -1731,7 +1740,7 @@
         <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
         <v>86</v>
@@ -1758,7 +1767,7 @@
         <v>72</v>
       </c>
       <c r="AB11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="s">
         <v>79</v>
@@ -1784,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>95</v>
@@ -1796,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -1806,10 +1815,10 @@
         <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
         <v>62</v>
@@ -1827,10 +1836,10 @@
         <v>96</v>
       </c>
       <c r="R12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T12" t="n">
         <v>293</v>
@@ -1854,13 +1863,13 @@
         <v>72</v>
       </c>
       <c r="AB12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="s">
         <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE12" t="s">
         <v>81</v>
@@ -1880,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -1892,7 +1901,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
         <v>70</v>
@@ -1902,10 +1911,10 @@
         <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
         <v>62</v>
@@ -1917,16 +1926,16 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
         <v>96</v>
       </c>
       <c r="R13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T13" t="n">
         <v>293</v>
@@ -1950,13 +1959,13 @@
         <v>72</v>
       </c>
       <c r="AB13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="s">
         <v>79</v>
       </c>
       <c r="AD13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE13" t="s">
         <v>81</v>
@@ -1976,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
@@ -1988,7 +1997,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>70</v>
@@ -1998,10 +2007,10 @@
         <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
         <v>62</v>
@@ -2019,10 +2028,10 @@
         <v>96</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" t="n">
         <v>293</v>
@@ -2046,13 +2055,13 @@
         <v>72</v>
       </c>
       <c r="AB14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC14" t="s">
         <v>79</v>
       </c>
       <c r="AD14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE14" t="s">
         <v>81</v>
@@ -2072,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -2084,7 +2093,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
         <v>70</v>
@@ -2094,10 +2103,10 @@
         <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
         <v>62</v>
@@ -2115,10 +2124,10 @@
         <v>96</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T15" t="n">
         <v>293</v>
@@ -2142,13 +2151,13 @@
         <v>72</v>
       </c>
       <c r="AB15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC15" t="s">
         <v>79</v>
       </c>
       <c r="AD15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE15" t="s">
         <v>81</v>
@@ -2168,7 +2177,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -2180,7 +2189,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>70</v>
@@ -2190,10 +2199,10 @@
         <v>71</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
         <v>62</v>
@@ -2211,10 +2220,10 @@
         <v>96</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T16" t="n">
         <v>293</v>
@@ -2238,13 +2247,13 @@
         <v>72</v>
       </c>
       <c r="AB16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="s">
         <v>79</v>
       </c>
       <c r="AD16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE16" t="s">
         <v>81</v>
@@ -2264,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
@@ -2276,7 +2285,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>70</v>
@@ -2286,10 +2295,10 @@
         <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
         <v>62</v>
@@ -2307,10 +2316,10 @@
         <v>96</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T17" t="n">
         <v>293</v>
@@ -2334,13 +2343,13 @@
         <v>72</v>
       </c>
       <c r="AB17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC17" t="s">
         <v>79</v>
       </c>
       <c r="AD17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE17" t="s">
         <v>81</v>
@@ -2360,7 +2369,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>104</v>
@@ -2372,20 +2381,20 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s"/>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
         <v>62</v>
@@ -2394,7 +2403,7 @@
         <v>72</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
         <v>74</v>
@@ -2403,10 +2412,10 @@
         <v>105</v>
       </c>
       <c r="R18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
         <v>106</v>
@@ -2430,13 +2439,13 @@
         <v>72</v>
       </c>
       <c r="AB18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE18" t="s">
         <v>81</v>
@@ -2456,7 +2465,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>109</v>
@@ -2468,20 +2477,20 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s"/>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
         <v>62</v>
@@ -2490,7 +2499,7 @@
         <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
         <v>110</v>
@@ -2499,10 +2508,10 @@
         <v>105</v>
       </c>
       <c r="R19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
         <v>106</v>
@@ -2526,13 +2535,13 @@
         <v>72</v>
       </c>
       <c r="AB19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE19" t="s">
         <v>81</v>
@@ -2552,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>111</v>
@@ -2564,20 +2573,20 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s"/>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
         <v>62</v>
@@ -2586,7 +2595,7 @@
         <v>72</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P20" t="s">
         <v>74</v>
@@ -2595,10 +2604,10 @@
         <v>105</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
         <v>106</v>
@@ -2622,13 +2631,13 @@
         <v>72</v>
       </c>
       <c r="AB20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE20" t="s">
         <v>81</v>
@@ -2648,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>112</v>
@@ -2660,20 +2669,20 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s"/>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
         <v>62</v>
@@ -2682,19 +2691,19 @@
         <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q21" t="s">
         <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
         <v>106</v>
@@ -2718,13 +2727,13 @@
         <v>72</v>
       </c>
       <c r="AB21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE21" t="s">
         <v>81</v>
@@ -2744,7 +2753,7 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>113</v>
@@ -2756,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
         <v>70</v>
@@ -2766,19 +2775,19 @@
         <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
         <v>62</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s">
         <v>114</v>
@@ -2790,7 +2799,7 @@
         <v>64</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
         <v>116</v>
@@ -2814,10 +2823,10 @@
         <v>72</v>
       </c>
       <c r="AB22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD22" t="s">
         <v>80</v>
@@ -2840,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>118</v>
@@ -2851,8 +2860,12 @@
       <c r="F23" t="s">
         <v>39</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
       <c r="K23" t="s"/>
@@ -2888,7 +2901,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>119</v>
@@ -2899,8 +2912,12 @@
       <c r="F24" t="s">
         <v>39</v>
       </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
       <c r="K24" t="s"/>
@@ -2936,7 +2953,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>120</v>
@@ -2980,7 +2997,7 @@
         <v>123</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
         <v>124</v>
@@ -3001,13 +3018,13 @@
         <v>72</v>
       </c>
       <c r="AB25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD25" t="s">
         <v>80</v>
       </c>
       <c r="AE25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG25" t="s">
         <v>72</v>
@@ -3024,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>126</v>
@@ -3068,7 +3085,7 @@
         <v>123</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
         <v>124</v>
@@ -3089,7 +3106,7 @@
         <v>72</v>
       </c>
       <c r="AB26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD26" t="s">
         <v>80</v>
@@ -3112,7 +3129,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>127</v>
@@ -3156,7 +3173,7 @@
         <v>123</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
         <v>124</v>
@@ -3177,7 +3194,7 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD27" t="s">
         <v>80</v>
@@ -3200,7 +3217,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>128</v>
@@ -3244,7 +3261,7 @@
         <v>123</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
         <v>124</v>
@@ -3265,7 +3282,7 @@
         <v>72</v>
       </c>
       <c r="AB28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD28" t="s">
         <v>129</v>
@@ -3288,7 +3305,7 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -3332,7 +3349,7 @@
         <v>123</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
         <v>124</v>
@@ -3353,7 +3370,7 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD29" t="s">
         <v>80</v>
@@ -3376,7 +3393,7 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>131</v>
@@ -3387,7 +3404,9 @@
       <c r="F30" t="s">
         <v>39</v>
       </c>
-      <c r="G30" t="s"/>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s"/>
       <c r="J30" t="s"/>
@@ -3418,16 +3437,16 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -3468,7 +3487,7 @@
         <v>123</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
         <v>124</v>
@@ -3489,7 +3508,7 @@
         <v>72</v>
       </c>
       <c r="AB31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="s">
         <v>80</v>
@@ -3506,16 +3525,16 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
@@ -3556,7 +3575,7 @@
         <v>123</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
         <v>124</v>
@@ -3577,7 +3596,7 @@
         <v>72</v>
       </c>
       <c r="AB32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD32" t="s">
         <v>80</v>
@@ -3594,16 +3613,16 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -3644,7 +3663,7 @@
         <v>123</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
         <v>124</v>
@@ -3665,7 +3684,7 @@
         <v>72</v>
       </c>
       <c r="AB33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD33" t="s">
         <v>80</v>
@@ -3682,16 +3701,16 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -3732,7 +3751,7 @@
         <v>123</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
         <v>124</v>
@@ -3753,7 +3772,7 @@
         <v>72</v>
       </c>
       <c r="AB34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD34" t="s">
         <v>80</v>
@@ -3770,16 +3789,16 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -3788,42 +3807,42 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s"/>
       <c r="I35" t="s"/>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s">
         <v>62</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R35" t="s">
         <v>64</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U35" t="n">
         <v>385</v>
@@ -3841,39 +3860,39 @@
         <v>98</v>
       </c>
       <c r="AA35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE35" t="s">
         <v>81</v>
       </c>
       <c r="AG35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -3882,39 +3901,39 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s"/>
       <c r="I36" t="s"/>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s">
         <v>62</v>
       </c>
       <c r="N36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P36" t="s">
         <v>91</v>
       </c>
       <c r="Q36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R36" t="s">
         <v>64</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T36" t="n">
         <v>610</v>
@@ -3935,39 +3954,39 @@
         <v>98</v>
       </c>
       <c r="AA36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE36" t="s">
         <v>81</v>
       </c>
       <c r="AG36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -3976,39 +3995,39 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s"/>
       <c r="I37" t="s"/>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s">
         <v>62</v>
       </c>
       <c r="N37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P37" t="s">
         <v>114</v>
       </c>
       <c r="Q37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R37" t="s">
         <v>64</v>
       </c>
       <c r="S37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T37" t="n">
         <v>610</v>
@@ -4029,39 +4048,39 @@
         <v>98</v>
       </c>
       <c r="AA37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE37" t="s">
         <v>81</v>
       </c>
       <c r="AG37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -4070,7 +4089,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s"/>
       <c r="I38" t="s"/>
@@ -4078,19 +4097,19 @@
         <v>61</v>
       </c>
       <c r="K38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M38" t="s">
         <v>62</v>
       </c>
       <c r="N38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P38" t="s">
         <v>114</v>
@@ -4102,7 +4121,7 @@
         <v>64</v>
       </c>
       <c r="S38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
         <v>65</v>
@@ -4117,34 +4136,34 @@
         <v>43</v>
       </c>
       <c r="Y38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
